--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value531.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value531.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.089349621146183</v>
+        <v>1.300082802772522</v>
       </c>
       <c r="B1">
-        <v>1.494146297974787</v>
+        <v>2.249264478683472</v>
       </c>
       <c r="C1">
-        <v>1.564963204884215</v>
+        <v>2.812947511672974</v>
       </c>
       <c r="D1">
-        <v>1.775498318606839</v>
+        <v>3.239881992340088</v>
       </c>
       <c r="E1">
-        <v>2.298315587608013</v>
+        <v>2.07282567024231</v>
       </c>
     </row>
   </sheetData>
